--- a/code/params/params.xlsx
+++ b/code/params/params.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhendry\Documents\GitHub\Dynamic-knee-extension\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhendry\Documents\GitHub\Dynamic_knee_extension_4S\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98E2630-0D7D-4094-A6AF-E179B91EDF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CBC55A-DD74-43BD-B0FD-17BA636534D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15330" windowHeight="10770" tabRatio="363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>S. No</t>
   </si>
@@ -95,9 +96,6 @@
   </si>
   <si>
     <t>k_{Gly}</t>
-  </si>
-  <si>
-    <t>\beta</t>
   </si>
   <si>
     <t>k_{Adk}</t>
@@ -492,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1305.61826028873</v>
+        <v>1305.63903579056</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1481.98992028628</v>
+        <v>1481.9802120807799</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1419.3629053099701</v>
+        <v>1419.3444775010501</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>1003.84759472459</v>
+        <v>1003.87519669583</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>638.03560574706603</v>
+        <v>637.91990134443995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>1076.999936163</v>
+        <v>1077.0278056008101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>371.218312940521</v>
+        <v>371.20972476506398</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>73.704305194023704</v>
+        <v>74.243673365407005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>404.94984374747497</v>
+        <v>404.94587964378002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>40.306397904110398</v>
+        <v>40.360321556112197</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>1.4461364048051199E-2</v>
+        <v>0.110575712014815</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>265.78442641061599</v>
+        <v>265.79211156835203</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>95115.180311626202</v>
+        <v>95115.179321421805</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,13 +703,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15">
-        <v>1.1766767736166699</v>
+        <v>0.75161522983935203</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,13 +717,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16">
-        <v>6.1830384676327797E-9</v>
+        <v>1.98096825757854E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,13 +731,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>2.11017688363552E-10</v>
+        <v>3.41761365709046E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>1.7499896647994899</v>
+        <v>0.92283536633622898</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,10 +762,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>1.6133777318026401</v>
+        <v>55.286107877359598</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,10 +776,10 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>59.949158688894997</v>
+        <v>40.884968550274202</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>41.150373143071299</v>
+        <v>3.2957219145541998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <v>3.8558470866766301</v>
+        <v>1.86832427877261E-4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,13 +815,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>1.9140441114377899E-4</v>
+        <v>6.1665414397629997E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,26 +829,12 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>3.9614302082435001E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
         <v>0</v>
       </c>
     </row>
@@ -858,4 +842,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A452AF-C53A-4C17-A9C6-68981CFDBEAF}">
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1305.63903579056</v>
+      </c>
+      <c r="B1">
+        <v>1481.9802120807799</v>
+      </c>
+      <c r="C1">
+        <v>1419.3444775010501</v>
+      </c>
+      <c r="D1">
+        <v>1003.87519669583</v>
+      </c>
+      <c r="E1">
+        <v>637.91990134443995</v>
+      </c>
+      <c r="F1">
+        <v>1077.0278056008101</v>
+      </c>
+      <c r="G1">
+        <v>371.20972476506398</v>
+      </c>
+      <c r="H1">
+        <v>74.243673365407005</v>
+      </c>
+      <c r="I1">
+        <v>404.94587964378002</v>
+      </c>
+      <c r="J1">
+        <v>40.360321556112197</v>
+      </c>
+      <c r="K1">
+        <v>0.110575712014815</v>
+      </c>
+      <c r="L1">
+        <v>265.79211156835203</v>
+      </c>
+      <c r="M1">
+        <v>95115.179321421805</v>
+      </c>
+      <c r="N1">
+        <v>0.75161522983935203</v>
+      </c>
+      <c r="O1">
+        <v>1.98096825757854E-4</v>
+      </c>
+      <c r="P1">
+        <v>3.41761365709046E-4</v>
+      </c>
+      <c r="Q1">
+        <v>0.92283536633622898</v>
+      </c>
+      <c r="R1">
+        <v>55.286107877359598</v>
+      </c>
+      <c r="S1">
+        <v>40.884968550274202</v>
+      </c>
+      <c r="T1">
+        <v>3.2957219145541998</v>
+      </c>
+      <c r="U1">
+        <v>1.86832427877261E-4</v>
+      </c>
+      <c r="V1">
+        <v>6.1665414397629997E-4</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>